--- a/medicine/Mort/Cimetière_militaire_britannique_de_Marœuil/Cimetière_militaire_britannique_de_Marœuil.xlsx
+++ b/medicine/Mort/Cimetière_militaire_britannique_de_Marœuil/Cimetière_militaire_britannique_de_Marœuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_britannique_de_Mar%C5%93uil</t>
+          <t>Cimetière_militaire_britannique_de_Marœuil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire britannique de Marœuil dans le Pas-de-Calais accueille 571 tombes de soldats[1] tombés durant la Grande Guerre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire britannique de Marœuil dans le Pas-de-Calais accueille 571 tombes de soldats tombés durant la Grande Guerre.
 Les dates de décès s'étalent entre le 13 mars 1916 et le 24 janvier 1919.
-Parmi les 571 soldats enterrés, 7 sont Allemands, 2 Indiens, 30 Canadiens, le reste (532) étant issu du Royaume-Uni[1].
-Il est à noter que c'est dans ce cimetière que repose Georges Henry Waters[2], le grand-père paternel de Roger Waters[3], ex-membre du groupe de rock britannique Pink Floyd.
+Parmi les 571 soldats enterrés, 7 sont Allemands, 2 Indiens, 30 Canadiens, le reste (532) étant issu du Royaume-Uni.
+Il est à noter que c'est dans ce cimetière que repose Georges Henry Waters, le grand-père paternel de Roger Waters, ex-membre du groupe de rock britannique Pink Floyd.
 </t>
         </is>
       </c>
